--- a/docs/ReceitasBaseDados.xlsx
+++ b/docs/ReceitasBaseDados.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Carolina\Desktop\workspace-STS\docs-Receita\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Carolina\Desktop\workspace-STS\my-recipe-manager\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537AC3B-86D3-4569-9A0E-D4157888255D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBAEF03-E67C-49F0-9D2F-44A92087D7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5CE3798D-0471-42A9-8E16-9C5D76E4694B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CE3798D-0471-42A9-8E16-9C5D76E4694B}"/>
   </bookViews>
   <sheets>
     <sheet name="Receitas" sheetId="1" r:id="rId1"/>
     <sheet name="Receita Completa" sheetId="2" r:id="rId2"/>
-    <sheet name="Ingredientes" sheetId="3" r:id="rId3"/>
-    <sheet name="Detalhes Ingredientes Receita" sheetId="4" r:id="rId4"/>
+    <sheet name="Detalhes Ingredientes Receita" sheetId="4" r:id="rId3"/>
+    <sheet name="Ingredientes" sheetId="3" r:id="rId4"/>
     <sheet name="Enums" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="428">
   <si>
     <t>cd_receita</t>
   </si>
@@ -2201,6 +2201,132 @@
   </si>
   <si>
     <t xml:space="preserve">450g raladas de </t>
+  </si>
+  <si>
+    <t>3 colheres</t>
+  </si>
+  <si>
+    <t>2 pacotes</t>
+  </si>
+  <si>
+    <t>alho</t>
+  </si>
+  <si>
+    <t>2 dentes picados de</t>
+  </si>
+  <si>
+    <t>à gosto</t>
+  </si>
+  <si>
+    <t>requeijão</t>
+  </si>
+  <si>
+    <t>1 colher de chá</t>
+  </si>
+  <si>
+    <t>caldo de legumes</t>
+  </si>
+  <si>
+    <t>1 xicara</t>
+  </si>
+  <si>
+    <t>1 colher</t>
+  </si>
+  <si>
+    <t>mussarela ralada</t>
+  </si>
+  <si>
+    <t>1 1/2 xicara de</t>
+  </si>
+  <si>
+    <t>100g de</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>1k descascada e picada</t>
+  </si>
+  <si>
+    <t>1 1/2 xícara</t>
+  </si>
+  <si>
+    <t>1/2 xícara</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>água</t>
+  </si>
+  <si>
+    <t>4 colheres</t>
+  </si>
+  <si>
+    <t>cebola</t>
+  </si>
+  <si>
+    <t>2 picadas</t>
+  </si>
+  <si>
+    <t>abobrinha</t>
+  </si>
+  <si>
+    <t>pimentão vermelho</t>
+  </si>
+  <si>
+    <t>pimentão amarelo</t>
+  </si>
+  <si>
+    <t>1 picado</t>
+  </si>
+  <si>
+    <t>manteiga</t>
+  </si>
+  <si>
+    <t>2 colheres</t>
+  </si>
+  <si>
+    <t>1/2 xícara picado</t>
+  </si>
+  <si>
+    <t>sardinha</t>
+  </si>
+  <si>
+    <t>2 latas limpas e sem óleo</t>
+  </si>
+  <si>
+    <t>iogurte natural</t>
+  </si>
+  <si>
+    <t>2 copos</t>
+  </si>
+  <si>
+    <t>pó para sopa de cenoura e abóbora</t>
+  </si>
+  <si>
+    <t>1 pacote</t>
+  </si>
+  <si>
+    <t>1 xícara</t>
+  </si>
+  <si>
+    <t>1 picada</t>
+  </si>
+  <si>
+    <t>2 xícaras</t>
+  </si>
+  <si>
+    <t>cebolinha e salsa</t>
+  </si>
+  <si>
+    <t>1/2 xícara picada</t>
+  </si>
+  <si>
+    <t>1 1/2 xícara em cubos</t>
+  </si>
+  <si>
+    <t>3 picados e sem sementes</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2377,6 +2503,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2702,10 +2833,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9132D429-097A-4BF5-8B9E-D0B4CD332D57}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2853,6 +2986,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="59.25" customHeight="1" thickBot="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -2872,6 +3008,110 @@
         <v>2</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="78" customHeight="1" thickBot="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="99" customHeight="1" thickBot="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="103.5" thickBot="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="78.75" customHeight="1" thickBot="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
     </row>
@@ -2885,8 +3125,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="B17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2896,7 +3136,7 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
@@ -3047,7 +3287,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="256.5" thickBot="1">
+    <row r="7" spans="1:8" ht="256.5" hidden="1" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3069,8 +3309,11 @@
       <c r="G7" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="358.5" thickBot="1">
+      <c r="H7" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="358.5" hidden="1" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3092,8 +3335,11 @@
       <c r="G8" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="167.25" thickBot="1">
+      <c r="H8" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="167.25" hidden="1" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3115,8 +3361,11 @@
       <c r="G9" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="205.5" thickBot="1">
+      <c r="H9" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="205.5" hidden="1" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3135,6 +3384,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="180" thickBot="1">
@@ -4689,11 +4941,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9883990C-E4B2-4B1A-B182-47EBFF04A2E9}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>23</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>29</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>31</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>32</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>34</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>35</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>36</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>15</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>37</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>19</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A65C3-D07E-40A4-910E-2BF444B23F52}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4701,7 +6089,7 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4833,7 +6221,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4841,7 +6229,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4849,44 +6237,236 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>379</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="141.75" thickBot="1">
+      <c r="C39" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4894,502 +6474,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9883990C-E4B2-4B1A-B182-47EBFF04A2E9}">
-  <dimension ref="A1:G43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>19</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>20</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>21</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>16</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>22</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>19</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>18</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
